--- a/Publish/source/CustomRegion/CustomRegionMouse_2015.xlsx
+++ b/Publish/source/CustomRegion/CustomRegionMouse_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\CustomRegionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharoncy\Documents\GitHub\nutil\Resources\CustomRegions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:AMK399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
